--- a/r4-core-64-valuesetoid/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-64-valuesetoid/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:04:46+00:00</t>
+    <t>2023-02-10T15:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -926,7 +926,7 @@
 </t>
   </si>
   <si>
-    <t>CodeSystem OID</t>
+    <t>OID of the CodeSystem</t>
   </si>
   <si>
     <t>HL7® Austria FHIR® Core Extension for the capturing of OID in ValueSets to reference the CodeSystem they come from.

--- a/r4-core-64-valuesetoid/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-64-valuesetoid/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:19:40+00:00</t>
+    <t>2023-02-10T15:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -929,8 +929,7 @@
     <t>OID of the CodeSystem</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Extension for the capturing of OID in ValueSets to reference the CodeSystem they come from.
-The extension is used to document the OID of the CodeSystem for a code referenced in a ValueSet, to align FHIR with the HL7 Austria CDA documents.</t>
+    <t>Alternate representation of the CodeSystem as OID.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/r4-core-64-valuesetoid/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-64-valuesetoid/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:28:16+00:00</t>
+    <t>2023-02-14T16:55:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -916,20 +916,20 @@
     <t>open</t>
   </si>
   <si>
-    <t>ValueSet.compose.include.extension:CodeSystemOID</t>
-  </si>
-  <si>
-    <t>CodeSystemOID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-ext-valueset-codesystemoid}
+    <t>ValueSet.compose.include.extension:systemOID</t>
+  </si>
+  <si>
+    <t>systemOID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-ext-valueset-systemoid}
 </t>
   </si>
   <si>
-    <t>OID of the CodeSystem</t>
-  </si>
-  <si>
-    <t>Alternate representation of the CodeSystem as OID.</t>
+    <t>OID of the system</t>
+  </si>
+  <si>
+    <t>Alternate representation of the system of a code as OID.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1318,7 +1318,7 @@
     <t>ValueSet.expansion.contains.extension</t>
   </si>
   <si>
-    <t>ValueSet.expansion.contains.extension:CodeSystemOID</t>
+    <t>ValueSet.expansion.contains.extension:systemOID</t>
   </si>
   <si>
     <t>ValueSet.expansion.contains.modifierExtension</t>
@@ -1721,7 +1721,7 @@
   <cols>
     <col min="1" max="1" width="61.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="61.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.96875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1729,7 +1729,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.7265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
